--- a/biology/Botanique/Odontites_vernus/Odontites_vernus.xlsx
+++ b/biology/Botanique/Odontites_vernus/Odontites_vernus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Odontites vernus, l'Odontite rouge (parfois appelé Euphraise rouge), est une plante herbacée de la famille des Orobanchaceae (anciennement, des Scrophulariaceae).
 </t>
@@ -511,18 +523,20 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bartsia verna (Bellardi) Rchb.f.[1],[2]
-Euphrasia odontites var. latifolia Coss. &amp; Germ.[3], nom. superfl[2].
-Euphrasia odontites var. verna (Bellardi) Mérat[2],[4]
-Euphrasia verna Bellardi[5],[2]
-Odontites odontites subsp. vernus (Bellardi) Wettst.[6], nom invalide[2]
-Odontites ruber subsp. vernus (Bellardi) P.Fourn.[7],[2]
-Odontites ruber var. vernus (Bellardi) Coss. &amp; Germ.[8],[2]
-Odontites rubra Pers.[9]
-Odontites serotina var. latifolius Pau[10], nom. superfl.[2]
-Odontites serotina subsp. verna (Bellardi) Hayek[11], nom. superfl.[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bartsia verna (Bellardi) Rchb.f.,
+Euphrasia odontites var. latifolia Coss. &amp; Germ., nom. superfl.
+Euphrasia odontites var. verna (Bellardi) Mérat,
+Euphrasia verna Bellardi,
+Odontites odontites subsp. vernus (Bellardi) Wettst., nom invalide
+Odontites ruber subsp. vernus (Bellardi) P.Fourn.,
+Odontites ruber var. vernus (Bellardi) Coss. &amp; Germ.,
+Odontites rubra Pers.
+Odontites serotina var. latifolius Pau, nom. superfl.
+Odontites serotina subsp. verna (Bellardi) Hayek, nom. superfl.</t>
         </is>
       </c>
     </row>
@@ -550,7 +564,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Odontites vernus subsp. serotinus
 Odontites vernus subsp. vernus</t>
